--- a/pred_ohlcv/54_21/2019-10-22 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 FX ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>23760.45406371371</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>23559.58856371371</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>128431.2045637137</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -860,7 +860,7 @@
         <v>203942.8107637137</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>202219.5203637137</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>202219.5203637137</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>349502.3407637137</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>347717.1128637137</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>335169.8724379073</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>365610.2978379073</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>352608.9870756122</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>350215.7162756122</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>289776.4099756122</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>303541.1693027308</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>322781.6690027307</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>303721.0846027308</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>303721.0846027308</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>303140.9554027307</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>303140.9554027307</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>286991.9116027307</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>279884.3009027307</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>279894.3009027307</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>279894.3009027307</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>279894.3009027307</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>252067.2757027307</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>245303.5809027307</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>245313.5809027307</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>238202.5244027307</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>238202.5244027307</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-22 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 FX ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>23760.45406371371</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>23559.58856371371</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>128431.2045637137</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -860,7 +860,7 @@
         <v>203942.8107637137</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>202219.5203637137</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>202219.5203637137</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>349502.3407637137</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>349502.3407637137</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>347717.1128637137</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>335169.8724379073</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>365610.2978379073</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>352608.9870756122</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>350215.7162756122</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>289776.4099756122</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>303541.1693027308</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>311764.0846027308</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>303721.0846027308</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>303721.0846027308</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>303140.9554027307</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>286991.9116027307</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>279884.3009027307</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>279894.3009027307</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>279894.3009027307</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>279894.3009027307</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>252067.2757027307</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>245303.5809027307</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>245313.5809027307</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>238202.5244027307</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>238202.5244027307</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
